--- a/doc/拼团流程.xlsx
+++ b/doc/拼团流程.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulvming/项目/yum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulvming/项目/yum/miniPlugin/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>发起拼团</t>
     <rPh sb="0" eb="1">
@@ -142,6 +142,13 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>活动</t>
+    <rPh sb="0" eb="1">
+      <t>huo'dong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,18 +319,9 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -326,6 +330,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,13 +961,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>645885</xdr:colOff>
+      <xdr:colOff>659996</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>4319815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1776185</xdr:colOff>
+      <xdr:colOff>1790296</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>4688115</xdr:rowOff>
     </xdr:to>
@@ -965,7 +978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3113314" y="7712529"/>
+          <a:off x="3143552" y="7551259"/>
           <a:ext cx="1130300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1007,13 +1020,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>703943</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2371271</xdr:rowOff>
+      <xdr:rowOff>2427715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1808843</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3044371</xdr:rowOff>
+      <xdr:rowOff>3100815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1022,7 +1035,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7326086" y="5763985"/>
+          <a:off x="8874276" y="5659159"/>
           <a:ext cx="1104900" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1121,7 +1134,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1384300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2707821</xdr:rowOff>
+      <xdr:rowOff>2764265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1139,8 +1152,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1928586" y="6100535"/>
-          <a:ext cx="5397500" cy="65314"/>
+          <a:off x="1934633" y="5995709"/>
+          <a:ext cx="6939643" cy="8870"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1231,7 +1244,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1870529</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3044372</xdr:rowOff>
+      <xdr:rowOff>3100816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1249,8 +1262,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6688365" y="3923394"/>
-          <a:ext cx="381908" cy="5082721"/>
+          <a:off x="6727674" y="3958671"/>
+          <a:ext cx="325464" cy="5072641"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1282,13 +1295,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1211035</xdr:colOff>
+      <xdr:colOff>1222829</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>3915229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1222829</xdr:colOff>
+      <xdr:colOff>1225146</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>4319815</xdr:rowOff>
     </xdr:to>
@@ -1301,9 +1314,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3678464" y="7144658"/>
-          <a:ext cx="11794" cy="404586"/>
+        <a:xfrm>
+          <a:off x="3706385" y="7146673"/>
+          <a:ext cx="2317" cy="404586"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1334,13 +1347,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>197757</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4263571</xdr:rowOff>
+      <xdr:rowOff>4277682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1569357</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4733471</xdr:rowOff>
+      <xdr:rowOff>4747582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1349,7 +1362,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742043" y="7656285"/>
+          <a:off x="748090" y="7509126"/>
           <a:ext cx="1371600" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -1391,13 +1404,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1569357</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4498521</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>645885</xdr:colOff>
+      <xdr:rowOff>4503965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>659996</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4503965</xdr:rowOff>
+      <xdr:rowOff>4512632</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1408,9 +1421,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2113643" y="7891235"/>
-          <a:ext cx="999671" cy="5444"/>
+        <a:xfrm flipH="1">
+          <a:off x="2119690" y="7735409"/>
+          <a:ext cx="1023862" cy="8667"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1705,13 +1718,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>644070</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1995714</xdr:rowOff>
+      <xdr:rowOff>2023936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1748970</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2668814</xdr:rowOff>
+      <xdr:rowOff>2697036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1720,7 +1733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8808356" y="10268857"/>
+          <a:off x="8814403" y="13679714"/>
           <a:ext cx="1104900" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1762,7 +1775,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1493160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2332264</xdr:rowOff>
+      <xdr:rowOff>2360486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1780,8 +1793,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2037446" y="10605407"/>
-          <a:ext cx="6770910" cy="76200"/>
+          <a:off x="2043493" y="14016264"/>
+          <a:ext cx="6770910" cy="47978"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1815,13 +1828,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1950358</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2668813</xdr:rowOff>
+      <xdr:rowOff>2697035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1196521</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3088820</xdr:rowOff>
+      <xdr:rowOff>3117042</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1833,8 +1846,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6679293" y="8680450"/>
-          <a:ext cx="420007" cy="4943020"/>
+          <a:off x="6690380" y="12096347"/>
+          <a:ext cx="420007" cy="4932940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1868,13 +1881,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3991428</xdr:rowOff>
+      <xdr:rowOff>3977317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1625600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4461328</xdr:rowOff>
+      <xdr:rowOff>4447217</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1883,7 +1896,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="798286" y="12427857"/>
+          <a:off x="804333" y="15633095"/>
           <a:ext cx="1371600" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2159,7 +2172,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1029606</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2434772</xdr:rowOff>
+      <xdr:rowOff>2420661</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2171,8 +2184,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7317921" y="15722601"/>
-          <a:ext cx="7256" cy="337457"/>
+          <a:off x="7330017" y="18945982"/>
+          <a:ext cx="7256" cy="323346"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2310,13 +2323,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>653144</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1778000</xdr:rowOff>
+      <xdr:rowOff>1792111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1783444</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2146300</xdr:rowOff>
+      <xdr:rowOff>2160411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2325,7 +2338,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3120573" y="5170714"/>
+          <a:off x="3136700" y="5023555"/>
           <a:ext cx="1130300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2367,7 +2380,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1384300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1962150</xdr:rowOff>
+      <xdr:rowOff>1976261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -2385,8 +2398,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1928586" y="5354864"/>
-          <a:ext cx="1191987" cy="18142"/>
+          <a:off x="1934633" y="5207705"/>
+          <a:ext cx="1202067" cy="4031"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2521,13 +2534,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>616858</xdr:colOff>
+      <xdr:colOff>687413</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1324429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1747158</xdr:colOff>
+      <xdr:colOff>1817713</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1692729</xdr:rowOff>
     </xdr:to>
@@ -2538,7 +2551,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3084287" y="12990286"/>
+          <a:off x="3170969" y="12980207"/>
           <a:ext cx="1130300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2584,7 +2597,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>616858</xdr:colOff>
+      <xdr:colOff>687413</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1508579</xdr:rowOff>
     </xdr:to>
@@ -2598,8 +2611,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2037443" y="13174436"/>
-          <a:ext cx="1046844" cy="0"/>
+          <a:off x="2043490" y="13164357"/>
+          <a:ext cx="1127479" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2630,13 +2643,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>464456</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2434772</xdr:rowOff>
+      <xdr:rowOff>2420661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1594756</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2803072</xdr:rowOff>
+      <xdr:rowOff>2788961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2645,7 +2658,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6760027" y="16060058"/>
+          <a:off x="6772123" y="19269328"/>
           <a:ext cx="1130300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2693,7 +2706,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2618922</xdr:rowOff>
+      <xdr:rowOff>2604811</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2705,8 +2718,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7890327" y="16209737"/>
-          <a:ext cx="2986316" cy="34471"/>
+          <a:off x="7902423" y="19433118"/>
+          <a:ext cx="2980267" cy="20360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2746,7 +2759,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1685471</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>616859</xdr:rowOff>
+      <xdr:rowOff>630970</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2758,8 +2771,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4149273" y="14046200"/>
-          <a:ext cx="3627" cy="195945"/>
+          <a:off x="4165400" y="17269581"/>
+          <a:ext cx="3627" cy="210056"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2788,13 +2801,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>488042</xdr:colOff>
+      <xdr:colOff>473931</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>3053443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1618342</xdr:colOff>
+      <xdr:colOff>1604231</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>3421743</xdr:rowOff>
     </xdr:to>
@@ -2805,7 +2818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6783613" y="16678729"/>
+          <a:off x="6781598" y="19902110"/>
           <a:ext cx="1130300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2847,13 +2860,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>654957</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2599871</xdr:rowOff>
+      <xdr:rowOff>2628093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1950357</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3577771</xdr:rowOff>
+      <xdr:rowOff>3605993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2862,7 +2875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3122386" y="10873014"/>
+          <a:off x="3138513" y="14283871"/>
           <a:ext cx="1295400" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -2961,7 +2974,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1302657</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3577771</xdr:rowOff>
+      <xdr:rowOff>3605993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -2979,8 +2992,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3770086" y="11850914"/>
-          <a:ext cx="6350" cy="449943"/>
+          <a:off x="3786213" y="15261771"/>
+          <a:ext cx="6350" cy="421721"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3017,7 +3030,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>743857</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4226378</xdr:rowOff>
+      <xdr:rowOff>4212267</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3029,8 +3042,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2169886" y="12485007"/>
-          <a:ext cx="1041400" cy="14514"/>
+          <a:off x="2175933" y="15867642"/>
+          <a:ext cx="1051480" cy="403"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3059,7 +3072,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1618342</xdr:colOff>
+      <xdr:colOff>1604231</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2921001</xdr:rowOff>
     </xdr:from>
@@ -3079,8 +3092,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9513207" y="14946993"/>
-          <a:ext cx="316592" cy="3515180"/>
+          <a:off x="9515223" y="18166343"/>
+          <a:ext cx="316592" cy="3523242"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3232,7 +3245,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>488042</xdr:colOff>
+      <xdr:colOff>473931</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>3237593</xdr:rowOff>
     </xdr:to>
@@ -3246,8 +3259,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5896429" y="16694151"/>
-          <a:ext cx="887184" cy="5442"/>
+          <a:off x="5912556" y="20080818"/>
+          <a:ext cx="869042" cy="5442"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3331,13 +3344,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>288472</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>611414</xdr:rowOff>
+      <xdr:rowOff>639636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1558472</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>941614</xdr:rowOff>
+      <xdr:rowOff>969836</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3346,7 +3359,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="832758" y="23108557"/>
+          <a:off x="838805" y="26364192"/>
           <a:ext cx="1270000" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -3445,7 +3458,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1558472</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>776514</xdr:rowOff>
+      <xdr:rowOff>804736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -3463,8 +3476,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2102758" y="23273657"/>
-          <a:ext cx="1523999" cy="39005"/>
+          <a:off x="2108805" y="26529292"/>
+          <a:ext cx="1534079" cy="10783"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3495,13 +3508,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1034144</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>616859</xdr:rowOff>
+      <xdr:rowOff>630970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2329544</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1594759</xdr:rowOff>
+      <xdr:rowOff>1608870</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3510,7 +3523,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3501573" y="14242145"/>
+          <a:off x="3517700" y="17479637"/>
           <a:ext cx="1295400" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -3552,7 +3565,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2329544</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1105809</xdr:rowOff>
+      <xdr:rowOff>1119920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -3570,8 +3583,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4796973" y="14731095"/>
-          <a:ext cx="383723" cy="478065"/>
+          <a:off x="4813100" y="17968587"/>
+          <a:ext cx="383723" cy="463954"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3659,13 +3672,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>728436</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1105808</xdr:rowOff>
+      <xdr:rowOff>1119920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1034145</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3646713</xdr:rowOff>
+      <xdr:rowOff>3646714</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3677,8 +3690,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3195865" y="14731094"/>
-          <a:ext cx="305709" cy="2540905"/>
+          <a:off x="3211992" y="17968587"/>
+          <a:ext cx="305709" cy="2526794"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4261,13 +4274,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>235856</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3156856</xdr:rowOff>
+      <xdr:rowOff>3128634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1596567</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3597731</xdr:rowOff>
+      <xdr:rowOff>3569509</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4276,7 +4289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="780142" y="25490713"/>
+          <a:off x="786189" y="28853190"/>
           <a:ext cx="1360711" cy="440875"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -4755,13 +4768,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1596567</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3359151</xdr:rowOff>
+      <xdr:rowOff>3349072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1124858</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3377294</xdr:rowOff>
+      <xdr:rowOff>3359151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4772,9 +4785,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2140853" y="25693008"/>
-          <a:ext cx="1451434" cy="18143"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2146900" y="29073628"/>
+          <a:ext cx="1461514" cy="10079"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4803,13 +4816,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
+      <xdr:colOff>691443</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>326571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1765299</xdr:colOff>
+      <xdr:colOff>1821743</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>694871</xdr:rowOff>
     </xdr:to>
@@ -4820,7 +4833,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3102428" y="11992428"/>
+          <a:off x="3174999" y="11982349"/>
           <a:ext cx="1130300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4866,7 +4879,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
+      <xdr:colOff>691443</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>510721</xdr:rowOff>
     </xdr:to>
@@ -4880,8 +4893,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2122717" y="12175672"/>
-          <a:ext cx="979711" cy="906"/>
+          <a:off x="2128764" y="12165593"/>
+          <a:ext cx="1046235" cy="906"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4910,13 +4923,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
+      <xdr:colOff>677335</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>544286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:colOff>1807635</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>912586</xdr:rowOff>
     </xdr:to>
@@ -4927,7 +4940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3356429" y="8817429"/>
+          <a:off x="3160891" y="8813397"/>
           <a:ext cx="1130300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5030,7 +5043,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
+      <xdr:colOff>677335</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>745671</xdr:rowOff>
     </xdr:to>
@@ -5044,8 +5057,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2050143" y="9001579"/>
-          <a:ext cx="1306286" cy="17235"/>
+          <a:off x="2056190" y="8997547"/>
+          <a:ext cx="1104701" cy="17235"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5198,13 +5211,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1456872</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>912585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1454151</xdr:colOff>
+      <xdr:rowOff>912586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1242486</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1944006</xdr:rowOff>
+      <xdr:rowOff>1944007</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5216,8 +5229,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2445658" y="8741228"/>
-          <a:ext cx="1031421" cy="1920422"/>
+          <a:off x="2350913" y="8837989"/>
+          <a:ext cx="1031421" cy="1718837"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5246,7 +5259,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:colOff>1807635</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>728436</xdr:rowOff>
     </xdr:from>
@@ -5266,8 +5279,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486729" y="9001579"/>
-          <a:ext cx="487136" cy="1738991"/>
+          <a:off x="4291191" y="8997547"/>
+          <a:ext cx="698801" cy="1738991"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5561,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5577,92 +5590,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="215" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="397" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="267" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="290" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="312" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
